--- a/dmsan/results/RESULTS_AHP_ELECTRE.xlsx
+++ b/dmsan/results/RESULTS_AHP_ELECTRE.xlsx
@@ -9,13 +9,15 @@
   <sheets>
     <sheet name="concordance" sheetId="1" r:id="rId1"/>
     <sheet name="concordance_interval_matrix" sheetId="2" r:id="rId2"/>
+    <sheet name="discordance" sheetId="3" r:id="rId3"/>
+    <sheet name="discordance_matrix" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>T1</t>
   </si>
@@ -111,6 +113,27 @@
   </si>
   <si>
     <t>S12</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D31</t>
+  </si>
+  <si>
+    <t>D32</t>
   </si>
 </sst>
 </file>
@@ -1185,13 +1208,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1201,8 +1224,11 @@
       <c r="D1" s="1">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1215,8 +1241,11 @@
       <c r="D2">
         <v>3.348484488655513</v>
       </c>
+      <c r="E2">
+        <v>5.59515409507091</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1229,8 +1258,11 @@
       <c r="D3">
         <v>3.449599991972164</v>
       </c>
+      <c r="E3">
+        <v>8.033254160183025</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1241,6 +1273,1443 @@
         <v>2.622550592621276</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>5.917516680809346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AG7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.001372680256844635</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.01020018930707502</v>
+      </c>
+      <c r="G2">
+        <v>0.002331402251956546</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0.01017770444994065</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.0003447137401998406</v>
+      </c>
+      <c r="N2">
+        <v>0.01304452472504409</v>
+      </c>
+      <c r="O2">
+        <v>1.040834085586084E-17</v>
+      </c>
+      <c r="P2">
+        <v>0.00400871213331898</v>
+      </c>
+      <c r="Q2">
+        <v>0.004658032138707597</v>
+      </c>
+      <c r="R2">
+        <v>0.004315600788362389</v>
+      </c>
+      <c r="S2">
+        <v>0.0006947031207457446</v>
+      </c>
+      <c r="T2">
+        <v>0.01667920581077828</v>
+      </c>
+      <c r="U2">
+        <v>0.006034416381005374</v>
+      </c>
+      <c r="V2">
+        <v>0.009569061756122075</v>
+      </c>
+      <c r="W2">
+        <v>0.08390574610678284</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>0.004223085072947563</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.001465331108413622</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.005644759588777526</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.01698086211342996</v>
+      </c>
+      <c r="N3">
+        <v>0.005400554828947777</v>
+      </c>
+      <c r="O3">
+        <v>0.005162794649670108</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.02189652884955866</v>
+      </c>
+      <c r="S3">
+        <v>0.00455317185167925</v>
+      </c>
+      <c r="T3">
+        <v>0.05671330635007056</v>
+      </c>
+      <c r="U3">
+        <v>0.1206584098000264</v>
+      </c>
+      <c r="V3">
+        <v>0.01913812351224415</v>
+      </c>
+      <c r="W3">
+        <v>0.04195287305339142</v>
+      </c>
+      <c r="X3">
+        <v>2.500759619045468E-08</v>
+      </c>
+      <c r="Y3">
+        <v>0.05791195786282921</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0.006824989686099354</v>
+      </c>
+      <c r="AB3">
+        <v>1.028905908492593E-08</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.001372680256844635</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.01020018930707502</v>
+      </c>
+      <c r="G4">
+        <v>0.002331402251956546</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.01017770444994065</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.0003447137401998406</v>
+      </c>
+      <c r="N4">
+        <v>0.01304452472504409</v>
+      </c>
+      <c r="O4">
+        <v>1.040834085586084E-17</v>
+      </c>
+      <c r="P4">
+        <v>0.00400871213331898</v>
+      </c>
+      <c r="Q4">
+        <v>0.004658032138707597</v>
+      </c>
+      <c r="R4">
+        <v>0.004315600788362389</v>
+      </c>
+      <c r="S4">
+        <v>0.0006947031207457446</v>
+      </c>
+      <c r="T4">
+        <v>0.01667920581077828</v>
+      </c>
+      <c r="U4">
+        <v>0.006034416381005374</v>
+      </c>
+      <c r="V4">
+        <v>0.009569061756122075</v>
+      </c>
+      <c r="W4">
+        <v>0.08390574610678284</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>0.004223085072947563</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.001372680256844635</v>
+      </c>
+      <c r="E5">
+        <v>0.001465331108413622</v>
+      </c>
+      <c r="F5">
+        <v>0.01020018930707502</v>
+      </c>
+      <c r="G5">
+        <v>0.002331402251956546</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.005644759588777526</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.01017770444994065</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.01663614837323012</v>
+      </c>
+      <c r="N5">
+        <v>0.007643969896096312</v>
+      </c>
+      <c r="O5">
+        <v>0.005162794649670118</v>
+      </c>
+      <c r="P5">
+        <v>0.00400871213331898</v>
+      </c>
+      <c r="Q5">
+        <v>0.004658032138707597</v>
+      </c>
+      <c r="R5">
+        <v>0.01758092806119627</v>
+      </c>
+      <c r="S5">
+        <v>0.003858468730933505</v>
+      </c>
+      <c r="T5">
+        <v>0.07339251216084884</v>
+      </c>
+      <c r="U5">
+        <v>0.1266928261810318</v>
+      </c>
+      <c r="V5">
+        <v>0.009569061756122075</v>
+      </c>
+      <c r="W5">
+        <v>0.04195287305339142</v>
+      </c>
+      <c r="X5">
+        <v>2.500759619045468E-08</v>
+      </c>
+      <c r="Y5">
+        <v>0.05791195786282921</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0.006824989686099354</v>
+      </c>
+      <c r="AB5">
+        <v>1.028905908492593E-08</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>0.004223085072947563</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.001465331108413622</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.005644759588777526</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.01698086211342996</v>
+      </c>
+      <c r="N6">
+        <v>0.005400554828947777</v>
+      </c>
+      <c r="O6">
+        <v>0.005162794649670108</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.02189652884955866</v>
+      </c>
+      <c r="S6">
+        <v>0.00455317185167925</v>
+      </c>
+      <c r="T6">
+        <v>0.05671330635007056</v>
+      </c>
+      <c r="U6">
+        <v>0.1206584098000264</v>
+      </c>
+      <c r="V6">
+        <v>0.01913812351224415</v>
+      </c>
+      <c r="W6">
+        <v>0.04195287305339142</v>
+      </c>
+      <c r="X6">
+        <v>2.500759619045468E-08</v>
+      </c>
+      <c r="Y6">
+        <v>0.05791195786282921</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0.006824989686099354</v>
+      </c>
+      <c r="AB6">
+        <v>1.028905908492593E-08</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>0.004223085072947563</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.001372680256844635</v>
+      </c>
+      <c r="E7">
+        <v>0.001465331108413622</v>
+      </c>
+      <c r="F7">
+        <v>0.01020018930707502</v>
+      </c>
+      <c r="G7">
+        <v>0.002331402251956546</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.005644759588777526</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.01017770444994065</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.01663614837323012</v>
+      </c>
+      <c r="N7">
+        <v>0.007643969896096312</v>
+      </c>
+      <c r="O7">
+        <v>0.005162794649670118</v>
+      </c>
+      <c r="P7">
+        <v>0.00400871213331898</v>
+      </c>
+      <c r="Q7">
+        <v>0.004658032138707597</v>
+      </c>
+      <c r="R7">
+        <v>0.01758092806119627</v>
+      </c>
+      <c r="S7">
+        <v>0.003858468730933505</v>
+      </c>
+      <c r="T7">
+        <v>0.07339251216084884</v>
+      </c>
+      <c r="U7">
+        <v>0.1266928261810318</v>
+      </c>
+      <c r="V7">
+        <v>0.009569061756122075</v>
+      </c>
+      <c r="W7">
+        <v>0.04195287305339142</v>
+      </c>
+      <c r="X7">
+        <v>2.500759619045468E-08</v>
+      </c>
+      <c r="Y7">
+        <v>0.05791195786282921</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0.006824989686099354</v>
+      </c>
+      <c r="AB7">
+        <v>1.028905908492593E-08</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AG7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0.01017770444994065</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.0003447137401998406</v>
+      </c>
+      <c r="N2">
+        <v>0.01304452472504409</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.00400871213331898</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.004315600788362389</v>
+      </c>
+      <c r="S2">
+        <v>0.0006947031207457446</v>
+      </c>
+      <c r="T2">
+        <v>0.01667920581077828</v>
+      </c>
+      <c r="U2">
+        <v>0.006034416381005374</v>
+      </c>
+      <c r="V2">
+        <v>0.009569061756122075</v>
+      </c>
+      <c r="W2">
+        <v>0.08390574610678284</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.001465331108413622</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.005644759588777526</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.01698086211342996</v>
+      </c>
+      <c r="N3">
+        <v>0.005400554828947777</v>
+      </c>
+      <c r="O3">
+        <v>0.005162794649670108</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.02189652884955866</v>
+      </c>
+      <c r="S3">
+        <v>0.00455317185167925</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0.01913812351224415</v>
+      </c>
+      <c r="W3">
+        <v>0.04195287305339142</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>1.028905908492593E-08</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.001372680256844635</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.01020018930707502</v>
+      </c>
+      <c r="G4">
+        <v>0.002331402251956546</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.040834085586084E-17</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.004658032138707597</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.001372680256844635</v>
+      </c>
+      <c r="E5">
+        <v>0.001465331108413622</v>
+      </c>
+      <c r="F5">
+        <v>0.01020018930707502</v>
+      </c>
+      <c r="G5">
+        <v>0.002331402251956546</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.005644759588777526</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.01663614837323012</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.005162794649670118</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.004658032138707597</v>
+      </c>
+      <c r="R5">
+        <v>0.01758092806119627</v>
+      </c>
+      <c r="S5">
+        <v>0.003858468730933505</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0.009569061756122075</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>1.028905908492593E-08</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.004223085072947563</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0.05671330635007056</v>
+      </c>
+      <c r="U6">
+        <v>0.1206584098000264</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>2.500759619045468E-08</v>
+      </c>
+      <c r="Y6">
+        <v>0.05791195786282921</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0.006824989686099354</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.004223085072947563</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.01017770444994065</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.007643969896096312</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.00400871213331898</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0.07339251216084884</v>
+      </c>
+      <c r="U7">
+        <v>0.1266928261810318</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0.04195287305339142</v>
+      </c>
+      <c r="X7">
+        <v>2.500759619045468E-08</v>
+      </c>
+      <c r="Y7">
+        <v>0.05791195786282921</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0.006824989686099354</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
         <v>0</v>
       </c>
     </row>

--- a/dmsan/results/RESULTS_AHP_ELECTRE.xlsx
+++ b/dmsan/results/RESULTS_AHP_ELECTRE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>T1</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>S12</t>
-  </si>
-  <si>
-    <t>sum</t>
   </si>
   <si>
     <t>D12</t>
@@ -1208,13 +1205,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1224,11 +1221,8 @@
       <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1241,11 +1235,8 @@
       <c r="D2">
         <v>3.348484488655513</v>
       </c>
-      <c r="E2">
-        <v>5.59515409507091</v>
-      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1258,11 +1249,8 @@
       <c r="D3">
         <v>3.449599991972164</v>
       </c>
-      <c r="E3">
-        <v>8.033254160183025</v>
-      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1274,9 +1262,6 @@
       </c>
       <c r="D4">
         <v>0</v>
-      </c>
-      <c r="E4">
-        <v>5.917516680809346</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +1377,7 @@
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1493,7 +1478,7 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0.004223085072947563</v>
@@ -1594,7 +1579,7 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1695,7 +1680,7 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>0.004223085072947563</v>
@@ -1796,7 +1781,7 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>0.004223085072947563</v>
@@ -1897,7 +1882,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>0.004223085072947563</v>
